--- a/Document_Api/API-V-0.4.xlsx
+++ b/Document_Api/API-V-0.4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="138">
   <si>
     <t>Base URL:</t>
   </si>
@@ -403,9 +403,6 @@
     <t>logout and remove access token</t>
   </si>
   <si>
-    <t>username,password</t>
-  </si>
-  <si>
     <t>access_token</t>
   </si>
   <si>
@@ -418,25 +415,19 @@
     <t>http://www.freewebs.co.in/mobiapp/apis/list?model=Product</t>
   </si>
   <si>
-    <t>http://www.freewebs.co.in/mobiapp/apis/list?model=Users</t>
-  </si>
-  <si>
-    <t>Get list off all users</t>
-  </si>
-  <si>
     <t>Get list off all product</t>
   </si>
   <si>
     <t>Get list off all vendor (same as getAllVendorList)</t>
   </si>
   <si>
-    <t>Post request model=Users required</t>
-  </si>
-  <si>
     <t>Post request model=Product required</t>
   </si>
   <si>
     <t>Post request model=Vendor required</t>
+  </si>
+  <si>
+    <t>email,password</t>
   </si>
 </sst>
 </file>
@@ -917,7 +908,7 @@
   <dimension ref="A1:P774"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2188,7 +2179,7 @@
         <v>127</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -2218,7 +2209,7 @@
         <v>128</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2251,7 +2242,7 @@
     </row>
     <row r="50" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="7"/>
@@ -2287,24 +2278,12 @@
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>138</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="19"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -2327,13 +2306,13 @@
         <v>6</v>
       </c>
       <c r="D53" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="F53" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2357,13 +2336,13 @@
         <v>6</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -15352,9 +15331,8 @@
     <hyperlink ref="D48" r:id="rId12"/>
     <hyperlink ref="D54" r:id="rId13"/>
     <hyperlink ref="D53" r:id="rId14"/>
-    <hyperlink ref="D52" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Document_Api/API-V-0.4.xlsx
+++ b/Document_Api/API-V-0.4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="143">
   <si>
     <t>Base URL:</t>
   </si>
@@ -352,22 +352,13 @@
     <t>id</t>
   </si>
   <si>
-    <t>title, description</t>
-  </si>
-  <si>
     <t>user_id,product_id,address,order_amount,qty</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>product_id,comments</t>
   </si>
   <si>
     <t>product_id</t>
-  </si>
-  <si>
-    <t>email_address,first_name,last_name,username,user_group</t>
   </si>
   <si>
     <t>profile_pic is a file(image) send file object (optional)</t>
@@ -421,13 +412,37 @@
     <t>Get list off all vendor (same as getAllVendorList)</t>
   </si>
   <si>
-    <t>Post request model=Product required</t>
+    <t>email,password</t>
   </si>
   <si>
-    <t>Post request model=Vendor required</t>
+    <t>ResetPassword</t>
   </si>
   <si>
-    <t>email,password</t>
+    <t>http://www.freewebs.co.in/mobiapp/apis/forgotpassword</t>
+  </si>
+  <si>
+    <t>forgotpassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reset link send your registered email address </t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>Post request model=Product required(access_token)</t>
+  </si>
+  <si>
+    <t>Post request model=Vendor required(access_token)</t>
+  </si>
+  <si>
+    <t>title, description,access_token</t>
+  </si>
+  <si>
+    <t>name,access_token</t>
+  </si>
+  <si>
+    <t>email_address,first_name,last_name,username,user_group,access_token</t>
   </si>
 </sst>
 </file>
@@ -907,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P774"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1091,16 +1106,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
@@ -1283,16 +1298,16 @@
         <v>6</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -1481,7 +1496,7 @@
         <v>56</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1665,16 +1680,16 @@
         <v>6</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
@@ -1862,7 +1877,7 @@
         <v>89</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2052,7 +2067,7 @@
         <v>99</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -2144,7 +2159,7 @@
     </row>
     <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="7"/>
@@ -2164,7 +2179,7 @@
     </row>
     <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>5</v>
@@ -2173,13 +2188,13 @@
         <v>6</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -2194,7 +2209,7 @@
     </row>
     <row r="48" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>5</v>
@@ -2203,13 +2218,13 @@
         <v>6</v>
       </c>
       <c r="D48" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2242,7 +2257,7 @@
     </row>
     <row r="50" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="7"/>
@@ -2295,7 +2310,7 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
     </row>
-    <row r="53" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>33</v>
       </c>
@@ -2306,13 +2321,13 @@
         <v>6</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2325,7 +2340,7 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
-    <row r="54" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>73</v>
       </c>
@@ -2336,13 +2351,13 @@
         <v>6</v>
       </c>
       <c r="D54" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="F54" s="19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -2392,7 +2407,9 @@
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
+      <c r="A57" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="B57" s="3"/>
       <c r="C57" s="7"/>
       <c r="D57" s="3"/>
@@ -2410,12 +2427,24 @@
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="19"/>
+      <c r="A58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -15331,8 +15360,9 @@
     <hyperlink ref="D48" r:id="rId12"/>
     <hyperlink ref="D54" r:id="rId13"/>
     <hyperlink ref="D53" r:id="rId14"/>
+    <hyperlink ref="D58" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>